--- a/Subresultados/milestonesGACEP.xlsx
+++ b/Subresultados/milestonesGACEP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AGEU450" sheetId="1" state="visible" r:id="rId2"/>
@@ -417,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:CT27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="1" sqref="E23:F23 H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4885,7 +4885,7 @@
   <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="1" sqref="E23:F23 F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9348,8 +9348,8 @@
   </sheetPr>
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
